--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC210.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC210.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -528,18 +528,9 @@
     <t>IMG01</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC210, pág. 2)</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>Representación mediante Diagramas de Venn de los conjuntos F y M.</t>
-  </si>
-  <si>
-    <t>(Ver recurso MA_04_01_CO_REC210, pág. 3)</t>
-  </si>
-  <si>
     <t>IMG02</t>
   </si>
   <si>
@@ -549,13 +540,52 @@
     <t>IMG04</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC210, pág. 4)</t>
-  </si>
-  <si>
     <t>IMG05</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC210, pág. 5)</t>
+    <t>(Ver la imagen en la columna de observaciones, última de esta tabla)</t>
+  </si>
+  <si>
+    <t>Conjuntos V y C representados en diagramas de Venn, con la intersección sombreada suavemente y el número 8.</t>
+  </si>
+  <si>
+    <t>Conjunto de la unión CUV, con el número 35</t>
+  </si>
+  <si>
+    <t>Conjuntos V y C representados en diagramas de Venn, con la intersección sombreada suavemente y el número 8, con el 12 en solo el conjunto V y el 15 en solo el conjunto C.</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Fotografía con sabores de helado</t>
+  </si>
+  <si>
+    <t>Fotografía con sabores de helado vainilla y chocolate</t>
+  </si>
+  <si>
+    <t>Conjunto CUV con el número 35</t>
+  </si>
+  <si>
+    <t>Recurso F13</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>Conjuntos V y C. En solo los conjuntos V y C colocar signos de interrogación, en la intersección el número 8.</t>
+  </si>
+  <si>
+    <t>IMG10</t>
+  </si>
+  <si>
+    <t>Conjuntos V y C representados en Diagramas de Venn, en solo el conjunto V el número 12, en solo el conjunto C el número 15. En la intersección el número 8.</t>
+  </si>
+  <si>
+    <t>Conjuntos V y C. En solo los conjuntos V, C y en la interse+J10cción colocar signos de interrogación.</t>
   </si>
 </sst>
 </file>
@@ -565,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -707,6 +737,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1255,7 +1297,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1456,6 +1498,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,6 +1596,30 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1684,6 +1753,387 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1500188</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2938463</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1406843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17859376" y="2087563"/>
+          <a:ext cx="1438275" cy="1271905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>785812</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3290887</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1367155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17145000" y="3524250"/>
+          <a:ext cx="2505075" cy="1319530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1439862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17168813" y="5087937"/>
+          <a:ext cx="2657475" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3597275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2713038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16898938" y="7294563"/>
+          <a:ext cx="3057525" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4127500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1922462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16819563" y="10239375"/>
+          <a:ext cx="3667125" cy="1882775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3987800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2091691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16708438" y="13041314"/>
+          <a:ext cx="3638550" cy="1917065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2619375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16406813" y="15486063"/>
+          <a:ext cx="4381500" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2635250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4119562</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2063750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16573500" y="18168938"/>
+          <a:ext cx="3905250" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2400,7 +2850,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2865,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="58.125" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2438,14 +2888,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="76" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="16"/>
@@ -2455,12 +2905,12 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="86">
         <v>4</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="D3" s="87"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="53"/>
       <c r="I3" s="53"/>
       <c r="J3" s="16"/>
@@ -2470,10 +2920,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="5"/>
       <c r="F4" s="52" t="s">
         <v>56</v>
@@ -2491,17 +2941,17 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="5"/>
       <c r="F5" s="50" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H5" s="53"/>
       <c r="I5" s="74"/>
@@ -2545,12 +2995,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2594,212 +3044,220 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f t="shared" ref="C10" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f t="shared" ref="C10:C13" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="14" t="str">
         <f t="shared" ref="F10:F65" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_04_01_CO_REC210_IMG01n.png</v>
+        <v>MA_04_01_CO_REC210_IMG01.jpg</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" ref="H10:H65" si="2">IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_04_01_CO_REC210_IMG01a.png</v>
+        <v/>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v/>
       </c>
       <c r="J10" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" ref="C11" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <v>Recurso F13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_04_01_CO_REC210_IMG02n.png</v>
+        <v>MA_04_01_CO_REC210_IMG02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" ref="H11" si="5">IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_04_01_CO_REC210_IMG02a.png</v>
+        <v/>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v/>
       </c>
       <c r="J11" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" ref="C12" si="6">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <v>Recurso F13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" ref="F12" si="7">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_04_01_CO_REC210_IMG03n.png</v>
+        <v>MA_04_01_CO_REC210_IMG03.jpg</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" ref="H12" si="8">IF(I12&lt;&gt;"",IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_04_01_CO_REC210_IMG03a.png</v>
+        <v/>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v/>
       </c>
       <c r="J12" s="31" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="B13" s="109">
+        <v>119788993</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" ref="C13" si="9">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>160</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" ref="F13" si="10">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE($C$7,"_",$A13,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I13="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_04_01_CO_REC210_IMG04n.png</v>
+        <v>MA_04_01_CO_REC210_IMG04.jpg</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" ref="H13" si="11">IF(I13&lt;&gt;"",IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE($C$7,"_",$A13,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_04_01_CO_REC210_IMG04a.png</v>
+        <v/>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>153</v>
+        <v/>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="B14" s="110">
+        <v>68444665</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" ref="C14" si="12">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>152</v>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>160</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" ref="F14" si="13">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_04_01_CO_REC210_IMG05n.png</v>
+        <v>MA_04_01_CO_REC210_IMG05.jpg</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" ref="H14" si="14">IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_04_01_CO_REC210_IMG05a.png</v>
+        <v/>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>153</v>
+        <v/>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>162</v>
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="230.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
-        <f t="shared" ref="A11:A21" si="15">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(LEFT(A14,3),IF(MID(A14,4,2)+1&lt;10,CONCATENATE("0",MID(A14,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+        <f t="shared" ref="A15:A21" si="15">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(LEFT(A14,3),IF(MID(A14,4,2)+1&lt;10,CONCATENATE("0",MID(A14,4,2)+1))),"")</f>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_01_CO_REC210_IMG06.jpg</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2809,25 +3267,34 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="108" t="s">
+        <v>163</v>
+      </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_01_CO_REC210_IMG07.jpg</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2837,25 +3304,34 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="108" t="s">
+        <v>170</v>
+      </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_01_CO_REC210_IMG08.jpg</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2865,25 +3341,35 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="108" t="s">
+        <v>167</v>
+      </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_01_CO_REC210_IMG09.jpg</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2893,25 +3379,34 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="108" t="s">
+        <v>167</v>
+      </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>146</v>
+      </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_01_CO_REC210_IMG10.jpg</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2921,7 +3416,9 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="114" t="s">
+        <v>169</v>
+      </c>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4979,6 +5476,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5008,25 +5506,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5034,11 +5532,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="45"/>
       <c r="H3" s="35" t="s">
         <v>19</v>
@@ -5089,11 +5587,11 @@
       <c r="C5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="45"/>
       <c r="H5" s="35" t="s">
         <v>23</v>
@@ -5138,12 +5636,12 @@
       <c r="C7" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="89" t="str">
+      <c r="D7" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="35" t="s">
         <v>25</v>
       </c>
@@ -5237,14 +5735,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="35" t="s">
         <v>34</v>
       </c>
@@ -5277,12 +5775,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="J15" s="35">
         <v>12</v>
       </c>
@@ -5322,12 +5820,12 @@
       <c r="C17" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="97" t="str">
+      <c r="D17" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="J17" s="35">
         <v>14</v>
       </c>
@@ -5343,12 +5841,12 @@
       <c r="C18" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
       <c r="J18" s="35">
         <v>15</v>
       </c>
@@ -5739,41 +6237,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="54" t="s">
         <v>66</v>
       </c>
